--- a/biology/Zoologie/Eanus/Eanus.xlsx
+++ b/biology/Zoologie/Eanus/Eanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eanus est un genre d'insectes coléoptères de la famille des élatéridés que l'on trouve près de petites rivières et dans des prés humides de la zone paléarctique, parfois dans les forêts montagneuses.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eanus albertanus Brown, 1930
 Eanus costalis (Paykull, 1800)
